--- a/doc/ue_http.xlsx
+++ b/doc/ue_http.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45240EC-A29B-4BB8-9BC1-40E070B7ABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="参数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
   <si>
     <t>HTTP模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,12 +320,243 @@
     <t>考虑多线程同步问题，外部请求都是先插入队列，在线程主线程里面取出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/** timeout in seconds for the entire http request to complete. 0 is no timeout */</t>
+  </si>
+  <si>
+    <t>float HttpTimeout;</t>
+  </si>
+  <si>
+    <t>/** timeout in seconds to establish the connection. -1 for system defaults, 0 is no timeout */</t>
+  </si>
+  <si>
+    <t>float HttpConnectionTimeout;</t>
+  </si>
+  <si>
+    <t>/** timeout in seconds to receive a response on the connection. -1 for system defaults */</t>
+  </si>
+  <si>
+    <t>float HttpReceiveTimeout;</t>
+  </si>
+  <si>
+    <t>/** timeout in seconds to send a request on the connection. -1 for system defaults */</t>
+  </si>
+  <si>
+    <t>float HttpSendTimeout;</t>
+  </si>
+  <si>
+    <t>/** total time to delay the request */</t>
+  </si>
+  <si>
+    <t>float HttpDelayTime;</t>
+  </si>
+  <si>
+    <t>/** Time in seconds to use as frame time when actively processing requests. 0 means no frame time. */</t>
+  </si>
+  <si>
+    <t>float HttpThreadActiveFrameTimeInSeconds;</t>
+  </si>
+  <si>
+    <t>/** Time in seconds to sleep minimally when actively processing requests. */</t>
+  </si>
+  <si>
+    <t>float HttpThreadActiveMinimumSleepTimeInSeconds;</t>
+  </si>
+  <si>
+    <t>/** Time in seconds to use as frame time when idle, waiting for requests. 0 means no frame time. */</t>
+  </si>
+  <si>
+    <t>float HttpThreadIdleFrameTimeInSeconds;</t>
+  </si>
+  <si>
+    <t>/** Time in seconds to sleep minimally when idle, waiting for requests. */</t>
+  </si>
+  <si>
+    <t>float HttpThreadIdleMinimumSleepTimeInSeconds;</t>
+  </si>
+  <si>
+    <t>/** Max number of simultaneous connections to a specific server */</t>
+  </si>
+  <si>
+    <t>int32 HttpMaxConnectionsPerServer;</t>
+  </si>
+  <si>
+    <t>/** Max buffer size for individual http reads */</t>
+  </si>
+  <si>
+    <t>int32 MaxReadBufferSize;</t>
+  </si>
+  <si>
+    <t>/** toggles http requests */</t>
+  </si>
+  <si>
+    <t>bool bEnableHttp;</t>
+  </si>
+  <si>
+    <t>/** toggles null (mock) http requests */</t>
+  </si>
+  <si>
+    <t>bool bUseNullHttp;</t>
+  </si>
+  <si>
+    <t>/** Default headers - each request will include these headers, using the default value if not overridden */</t>
+  </si>
+  <si>
+    <t>TMap&lt;FString, FString&gt; DefaultHeaders;</t>
+  </si>
+  <si>
+    <t>/** singleton for the module while loaded and available */</t>
+  </si>
+  <si>
+    <t>static FHttpModule* Singleton;</t>
+  </si>
+  <si>
+    <t>/** The address to use for proxy, in format IPADDRESS:PORT */</t>
+  </si>
+  <si>
+    <t>FString ProxyAddress;</t>
+  </si>
+  <si>
+    <t>/** Whether or not the http implementation we are using supports dynamic proxy setting. */</t>
+  </si>
+  <si>
+    <t>bool bSupportsDynamicProxy;</t>
+  </si>
+  <si>
+    <t>/** Whitelist for domains that can be accessed. If Empty then no whitelist is applied */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; AllowedDomains;</t>
+  </si>
+  <si>
+    <t>HTTPModule相关的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认：是否包含DNS解析时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认：URL到IP的DNS解析，是在CURL线程里面同步进行的吗？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的HTTP交互时间，整个HTTP交互需要设置一个最大的时间（不同用法不一样，下载大的资源包时间就比较长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP Connect连接的最大超市时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP接收返回的超时时间，普通的汇报查询等WBE请求有意义，下载大的资源包需要设置的比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP发送请求的超时时间：这个可以设置，上行的web请求一般消息量很小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP请求延迟时间-暂不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTTPThread.cpp里面被用到：线程Run的每一帧里面process的间隔时间，上一次运行后，下一次就需要先sleep一定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合上面参数使用，两个中取最大的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提是当前有正在处理的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有正在处理请求时，为了防止Run空转的等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有正在处理请求时，为了防止Run空转的等待时间-配合上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转等待的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转等待的最小时间-和上面去最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMath::Max(HttpThreadIdleFrameTimeInSeconds - OuterLoopTime, HttpThreadIdleMinimumSleepTimeInSeconds);</t>
+  </si>
+  <si>
+    <t>设置了curl的CURLMOPT_MAX_HOST_CONNECTIONS参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅支持http/1.1，不支持http2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥意义了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么都不做，直接超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看出来，HTTP没有进行同时并发数控制，客户端一把请求数很少无所谓，但是警惕：后台下载资源这种，没有限制的话会抢占网络，造成逻辑层通讯问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE的HTTPModule封装好的比较简单，底层依赖CURL线程进行multicurl处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑开发的时候会面临一个问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个HTTP层无先后顺序控制，如需要，则需要自己开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对HTTP完成回调的接口，C++层可以直接绑死，但是脚本层的话，没办法控制死，只能设置成统一，这个时候就需要类型来判断谁是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有并发数控制，对客户端来说还好，一般都是自己的一些简单请求（就怕混合后台下载功能，很可能后台下载太快，导致逻辑层网络慢了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,12 +587,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF121212"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -419,7 +644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -699,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,381 +941,728 @@
     <col min="6" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="21" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
       <c r="E33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53"/>
-      <c r="C53" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61"/>
+      <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54"/>
-      <c r="C54" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62"/>
+      <c r="C62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55"/>
-      <c r="C55" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+      <c r="C63" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56"/>
-      <c r="C56" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64"/>
+      <c r="C64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57"/>
-      <c r="C57" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65"/>
+      <c r="C65" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="C61" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="C62" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="74" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+    <row r="75" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B68"/>
-      <c r="C68" s="3" t="s">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76"/>
+      <c r="C76" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69"/>
-      <c r="C69" s="3" t="s">
+    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77"/>
+      <c r="C77" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70"/>
-      <c r="C70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71"/>
-      <c r="C71" s="3"/>
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B72"/>
-      <c r="D72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78"/>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="3"/>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91"/>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="24" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/ue_http.xlsx
+++ b/doc/ue_http.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD1841-1328-4C95-89EE-671EE2BC4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>HTTP模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,11 +552,25 @@
     <t>？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoloLens</t>
+  </si>
+  <si>
+    <t>FHttpRequestIXML</t>
+  </si>
+  <si>
+    <t>微软类COM的一套接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -924,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,298 +1092,316 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61"/>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62"/>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63"/>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64"/>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65"/>
       <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69"/>
+      <c r="C69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="C69" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="C73" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="C70" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="78" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="79" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76"/>
-      <c r="C76" s="3" t="s">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80"/>
+      <c r="C80" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B77"/>
-      <c r="C77" s="3" t="s">
+    <row r="81" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81"/>
+      <c r="C81" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78"/>
-      <c r="C78" s="3" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82"/>
+      <c r="C82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D82" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79"/>
-      <c r="C79" s="3"/>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80"/>
-      <c r="D80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83"/>
       <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B84"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99"/>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1378,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:X51"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_http.xlsx
+++ b/doc/ue_http.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD1841-1328-4C95-89EE-671EE2BC4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FFE7B4-3367-4615-BFCB-759C8812D58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>HTTP模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,10 @@
   </si>
   <si>
     <t>微软类COM的一套接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new FCurlHttpRequest();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1123,7 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -1414,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:X51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
